--- a/Morning shift.xlsx
+++ b/Morning shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -46,58 +46,76 @@
     <t>Rate</t>
   </si>
   <si>
+    <t>Brien,McDonnell</t>
+  </si>
+  <si>
+    <t>Luis,Vargas Jaquez</t>
+  </si>
+  <si>
+    <t>Janeth,Falquez</t>
+  </si>
+  <si>
+    <t>Rodolfo,Morel Estevez</t>
+  </si>
+  <si>
+    <t>Miguel,Barros</t>
+  </si>
+  <si>
+    <t>Marlon,Armstrong</t>
+  </si>
+  <si>
+    <t>Alina,Castillo Alcantara</t>
+  </si>
+  <si>
+    <t>Rolando,Rodriguez</t>
+  </si>
+  <si>
+    <t>Davis,Villavicencio Lenes</t>
+  </si>
+  <si>
+    <t>Aurelio,Mercedes Hernandez</t>
+  </si>
+  <si>
     <t>Quinndel,Scott-Wright</t>
   </si>
   <si>
-    <t>Nana,Dompo</t>
-  </si>
-  <si>
-    <t>Wayne,Frederick</t>
-  </si>
-  <si>
-    <t>Brien,McDonnell</t>
-  </si>
-  <si>
-    <t>Janeth,Falquez</t>
+    <t>David,Ojeda Herrera</t>
   </si>
   <si>
     <t>Luis,Naula Jara</t>
   </si>
   <si>
-    <t>Daquan,Bryant</t>
-  </si>
-  <si>
-    <t>Jose,Guaman</t>
-  </si>
-  <si>
-    <t>David,Ojeda Herrera</t>
-  </si>
-  <si>
-    <t>Audrey,Henry</t>
-  </si>
-  <si>
-    <t>109.67</t>
-  </si>
-  <si>
-    <t>99.33</t>
-  </si>
-  <si>
-    <t>95.14</t>
-  </si>
-  <si>
-    <t>82.17</t>
-  </si>
-  <si>
-    <t>76.86</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>66.80</t>
-  </si>
-  <si>
-    <t>63.00</t>
+    <t>97.17</t>
+  </si>
+  <si>
+    <t>92.86</t>
+  </si>
+  <si>
+    <t>80.20</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>72.83</t>
+  </si>
+  <si>
+    <t>71.50</t>
+  </si>
+  <si>
+    <t>66.75</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
   </si>
   <si>
     <t>nan</t>
@@ -458,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,31 +522,31 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -539,31 +557,31 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I3">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="J3">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -574,31 +592,31 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="F4">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="G4">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="I4">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -609,31 +627,31 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E5">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -644,31 +662,31 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="I6">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -679,31 +697,31 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E7">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -714,31 +732,31 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F8">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G8">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="J8">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,31 +767,31 @@
         <v>17</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>22</v>
       </c>
-      <c r="D9">
-        <v>74</v>
-      </c>
-      <c r="E9">
-        <v>63</v>
-      </c>
       <c r="F9">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="H9">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="I9">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,16 +802,16 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -805,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -840,10 +858,115 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
